--- a/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3257</v>
+        <v>4607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002102287643290171</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01025561137352942</v>
+        <v>0.01450627970422883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4309</v>
+        <v>4136</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.003779382470701793</v>
+        <v>0.003779382470701792</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01365461391405859</v>
+        <v>0.0131068575914422</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>1860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5280</v>
+        <v>5414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00293813919149845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007972094580831379</v>
+        <v>0.000779790761784497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008338448786816721</v>
+        <v>0.008551187922764183</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9900</v>
+        <v>9628</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01186430529719307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00297023309027404</v>
+        <v>0.002971047626347456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03117123676258353</v>
+        <v>0.03031336954022458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3436</v>
+        <v>3400</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.003048009641540624</v>
+        <v>0.003048009641540623</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01088958712099898</v>
+        <v>0.01077411703555347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>4730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1834</v>
+        <v>1738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10819</v>
+        <v>10752</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.00747032932589257</v>
+        <v>0.007470329325892569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00289580100455079</v>
+        <v>0.002744610988798891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01708661095708375</v>
+        <v>0.01698141975644143</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3591</v>
+        <v>3944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15414</v>
+        <v>15780</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02595574825945689</v>
+        <v>0.0259557482594569</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01130756192455348</v>
+        <v>0.01241804941702452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04853186707571454</v>
+        <v>0.04968424032682488</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -904,19 +904,19 @@
         <v>2627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>761</v>
+        <v>948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6052</v>
+        <v>6226</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.008324972749027836</v>
+        <v>0.008324972749027834</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002411133207097658</v>
+        <v>0.003003919220329822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0191766208725875</v>
+        <v>0.01972934781844573</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -925,19 +925,19 @@
         <v>10871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5966</v>
+        <v>5614</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19514</v>
+        <v>18673</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01716870129846368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009422416888483795</v>
+        <v>0.008866731960713031</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03081929055176255</v>
+        <v>0.02949004582603167</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>9775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5053</v>
+        <v>4948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18019</v>
+        <v>17855</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0307768632210395</v>
+        <v>0.03077686322103949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01591028277127696</v>
+        <v>0.01557878370409892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05673356952409991</v>
+        <v>0.05621773838319807</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -975,19 +975,19 @@
         <v>13867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9251</v>
+        <v>9372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20234</v>
+        <v>20280</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04394168112051627</v>
+        <v>0.04394168112051625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0293153866990872</v>
+        <v>0.02969974652811926</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06411740537606495</v>
+        <v>0.06426522812075341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -996,19 +996,19 @@
         <v>23642</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16087</v>
+        <v>16917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32360</v>
+        <v>33808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03733811023182463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02540626717373634</v>
+        <v>0.02671691532806265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05110722962882289</v>
+        <v>0.05339356397914406</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>295154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285075</v>
+        <v>284056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>302949</v>
+        <v>302748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9293007955790205</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.897566727771729</v>
+        <v>0.894358352857614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9538412039880722</v>
+        <v>0.9532108979691052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>502</v>
@@ -1046,19 +1046,19 @@
         <v>296925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290264</v>
+        <v>289444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302290</v>
+        <v>302162</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9409059540182136</v>
+        <v>0.9409059540182134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.919795777789455</v>
+        <v>0.9171972097027326</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9579058978935066</v>
+        <v>0.9574988168549445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>809</v>
@@ -1067,19 +1067,19 @@
         <v>592080</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>579881</v>
+        <v>580181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>602529</v>
+        <v>602639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9350847199523208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9158195508007937</v>
+        <v>0.9162923914528555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515877729273061</v>
+        <v>0.9517614692217634</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7013</v>
+        <v>7174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002688935937743353</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01324101529800295</v>
+        <v>0.01354489015711731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4580</v>
+        <v>4638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00238207013173589</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008419503761271922</v>
+        <v>0.008525276320595144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1213,19 +1213,19 @@
         <v>2720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9000</v>
+        <v>8279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002533451639305876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0005054632392508588</v>
+        <v>0.000499792109303511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008382671623626587</v>
+        <v>0.007711209132380333</v>
       </c>
     </row>
     <row r="11">
@@ -1255,19 +1255,19 @@
         <v>3755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1297</v>
+        <v>1354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8032</v>
+        <v>8505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006901466867797933</v>
+        <v>0.006901466867797932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002384828088493665</v>
+        <v>0.00248893539088404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01476483649292912</v>
+        <v>0.01563293606673501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1276,19 +1276,19 @@
         <v>3754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8661</v>
+        <v>8564</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.00349686968414773</v>
+        <v>0.003496869684147729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001162052839978542</v>
+        <v>0.001193020258492071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008066799464907019</v>
+        <v>0.007976523714201295</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>32545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21353</v>
+        <v>20776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47855</v>
+        <v>48429</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06144598192929702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0403147015786033</v>
+        <v>0.03922517172654554</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09035066376787348</v>
+        <v>0.09143390753246869</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1326,19 +1326,19 @@
         <v>20604</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14420</v>
+        <v>13964</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29364</v>
+        <v>29378</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03787479409702803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02650636615559305</v>
+        <v>0.02566759463483078</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05397714103192948</v>
+        <v>0.05400297835566169</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -1347,19 +1347,19 @@
         <v>53150</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40061</v>
+        <v>40582</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70729</v>
+        <v>69969</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04950281481295427</v>
+        <v>0.04950281481295426</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03731253131893834</v>
+        <v>0.03779688258857673</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06587584786612934</v>
+        <v>0.06516780119403609</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>180426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155752</v>
+        <v>155297</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208729</v>
+        <v>210876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3406448764018852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2940601097804934</v>
+        <v>0.2932018218547944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3940810972781994</v>
+        <v>0.3981343456504341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -1397,19 +1397,19 @@
         <v>155092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135731</v>
+        <v>136396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174875</v>
+        <v>174840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2850880921544299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2494985355959136</v>
+        <v>0.250720502697257</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3214518478932897</v>
+        <v>0.3213877813532034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -1418,19 +1418,19 @@
         <v>335518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>302892</v>
+        <v>301399</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>369228</v>
+        <v>372421</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.312495087624351</v>
+        <v>0.3124950876243509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2821080473523315</v>
+        <v>0.280717466740093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3438921336444528</v>
+        <v>0.3468659786291056</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>315264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287224</v>
+        <v>286695</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341564</v>
+        <v>343566</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5952202057310745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.542280088122934</v>
+        <v>0.5412808227797713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6448734408158049</v>
+        <v>0.6486538041566475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1468,19 +1468,19 @@
         <v>363268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344431</v>
+        <v>342968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384414</v>
+        <v>381553</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6677535767490081</v>
+        <v>0.6677535767490084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.633126929974404</v>
+        <v>0.6304388901684982</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7066248031494491</v>
+        <v>0.701364112756349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>695</v>
@@ -1489,19 +1489,19 @@
         <v>678532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>644044</v>
+        <v>639472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>712444</v>
+        <v>710736</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6319717762392412</v>
+        <v>0.6319717762392411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5998510475288629</v>
+        <v>0.5955925501227292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6635573361067855</v>
+        <v>0.6619660800787615</v>
       </c>
     </row>
     <row r="15">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5757</v>
+        <v>6024</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00375520736421298</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01827161675984909</v>
+        <v>0.01912000358943928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2705</v>
+        <v>3009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001601036297975556</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007700241848075536</v>
+        <v>0.008563226491408222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7036</v>
+        <v>6518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00261947608891287</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01055878214454188</v>
+        <v>0.00978061738406194</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>5197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1852</v>
+        <v>1792</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12397</v>
+        <v>11511</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01649597627993956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005877914357625148</v>
+        <v>0.005689087407658403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03934922259536202</v>
+        <v>0.03653671496143807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1685,19 +1685,19 @@
         <v>2599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6675</v>
+        <v>6059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007396942164992113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00183995356068474</v>
+        <v>0.001927337783671259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01899782841288836</v>
+        <v>0.01724488947225685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1706,19 +1706,19 @@
         <v>7796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3561</v>
+        <v>3736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16079</v>
+        <v>15185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01169874462952174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005344142622074238</v>
+        <v>0.005605803426052191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02412841429084947</v>
+        <v>0.02278704944087403</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>11548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6055</v>
+        <v>5942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21568</v>
+        <v>20656</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03665271998112889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01921813795350673</v>
+        <v>0.01885880144051294</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06845623747308187</v>
+        <v>0.06556241437317883</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1756,19 +1756,19 @@
         <v>13832</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8473</v>
+        <v>8988</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21169</v>
+        <v>22476</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03936775242416641</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02411524448449713</v>
+        <v>0.02558104058305454</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06025057495754223</v>
+        <v>0.06397036483196977</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -1777,19 +1777,19 @@
         <v>25379</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17012</v>
+        <v>17201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36726</v>
+        <v>37099</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03808415098832278</v>
+        <v>0.03808415098832279</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02552746659340228</v>
+        <v>0.02581142128056863</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05511045608336366</v>
+        <v>0.0556702331014966</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>28237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18792</v>
+        <v>19389</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39098</v>
+        <v>40588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08962587686087044</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05964676332247371</v>
+        <v>0.06153989800597719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1240982921405285</v>
+        <v>0.1288265373073449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1827,19 +1827,19 @@
         <v>25163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17988</v>
+        <v>17999</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35988</v>
+        <v>35300</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07162021258240879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05119818419272148</v>
+        <v>0.05122837791175888</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1024289425498188</v>
+        <v>0.1004707215919026</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1848,19 +1848,19 @@
         <v>53401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42053</v>
+        <v>41468</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68905</v>
+        <v>66613</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08013285359353954</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06310430013655695</v>
+        <v>0.06222684476362664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1033988144481322</v>
+        <v>0.09995966782566161</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>268893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254330</v>
+        <v>254132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280489</v>
+        <v>281051</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.853470219513848</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8072464196410351</v>
+        <v>0.8066164647804485</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8902753554989682</v>
+        <v>0.8920581369526098</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>465</v>
@@ -1898,19 +1898,19 @@
         <v>309188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>297196</v>
+        <v>297307</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318399</v>
+        <v>318413</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8800140565304568</v>
+        <v>0.8800140565304571</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8458825992254633</v>
+        <v>0.8461995097664515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9062317383978162</v>
+        <v>0.906271162554569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>778</v>
@@ -1919,19 +1919,19 @@
         <v>578081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>559561</v>
+        <v>560664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>592947</v>
+        <v>594391</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8674647746997028</v>
+        <v>0.867464774699703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8396740733841856</v>
+        <v>0.8413284243266428</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8897727641345931</v>
+        <v>0.8919392708517878</v>
       </c>
     </row>
     <row r="21">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2335</v>
+        <v>2165</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001031807618479574</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005585021106929503</v>
+        <v>0.005180055545883065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2213</v>
+        <v>2515</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0005577069780060791</v>
+        <v>0.0005577069780060789</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002860990116510754</v>
+        <v>0.003252444903568901</v>
       </c>
     </row>
     <row r="23">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2234</v>
+        <v>2387</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001124712933880288</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.005345308412158647</v>
+        <v>0.005710011571990761</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2914</v>
+        <v>2424</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0006079236480178633</v>
+        <v>0.0006079236480178632</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.003768447915777161</v>
+        <v>0.003134248403584253</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>18998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9292</v>
+        <v>8465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35535</v>
+        <v>34955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05346533359228734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02615081068146835</v>
+        <v>0.02382265279040529</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.100003920254082</v>
+        <v>0.09837043449865571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2170,19 +2170,19 @@
         <v>8538</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3626</v>
+        <v>3635</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23770</v>
+        <v>22768</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02042662496907943</v>
+        <v>0.02042662496907942</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008675409061157813</v>
+        <v>0.008695799785081806</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05686625450315611</v>
+        <v>0.0544697652428527</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2191,19 +2191,19 @@
         <v>27536</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14567</v>
+        <v>15760</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44759</v>
+        <v>46323</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03560743255195167</v>
+        <v>0.03560743255195166</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01883621048939223</v>
+        <v>0.0203792152172679</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05787785412528226</v>
+        <v>0.05989990349022292</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>2889</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8481</v>
+        <v>9388</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008129369466759805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001679022919828594</v>
+        <v>0.001790334765201402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02386666502437576</v>
+        <v>0.02641935064747313</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2241,19 +2241,19 @@
         <v>4381</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1870</v>
+        <v>1812</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8861</v>
+        <v>9701</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01048069354629272</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004473048815267364</v>
+        <v>0.004335078628701061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02119929791053139</v>
+        <v>0.02320792756054277</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2262,19 +2262,19 @@
         <v>7270</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3541</v>
+        <v>3734</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14086</v>
+        <v>15048</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009400294223684528</v>
+        <v>0.009400294223684524</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004578492140913577</v>
+        <v>0.00482896619487751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0182149315652776</v>
+        <v>0.01945896693343418</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>333449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>316118</v>
+        <v>317049</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>343719</v>
+        <v>343658</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9384052969409529</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8896320711819833</v>
+        <v>0.8922523011750193</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9673059536033094</v>
+        <v>0.967135463697557</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>573</v>
@@ -2312,19 +2312,19 @@
         <v>404178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>390366</v>
+        <v>390065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>409830</v>
+        <v>410341</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.966936160932268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9338926080096789</v>
+        <v>0.9331722769965165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9804566551695852</v>
+        <v>0.9816795377918559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>840</v>
@@ -2333,19 +2333,19 @@
         <v>737628</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>720906</v>
+        <v>718592</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>751784</v>
+        <v>750285</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9538266425983399</v>
+        <v>0.9538266425983398</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9322041869297171</v>
+        <v>0.9292117254796882</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9721322672640577</v>
+        <v>0.97019447862453</v>
       </c>
     </row>
     <row r="27">
@@ -2484,19 +2484,19 @@
         <v>4096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1293</v>
+        <v>1520</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8009</v>
+        <v>8407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02015455176496343</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00636111999512575</v>
+        <v>0.007478563107845999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03941138807075759</v>
+        <v>0.04136617499464252</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2505,19 +2505,19 @@
         <v>2634</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7806</v>
+        <v>7307</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01163639194249578</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002922173953932117</v>
+        <v>0.003324167088195491</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03447825301959945</v>
+        <v>0.03227404148335586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2526,19 +2526,19 @@
         <v>6730</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3214</v>
+        <v>3374</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12106</v>
+        <v>12817</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0156658189514267</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007480483862310517</v>
+        <v>0.007853915000279571</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02817860153419851</v>
+        <v>0.02983344281263884</v>
       </c>
     </row>
     <row r="30">
@@ -2555,19 +2555,19 @@
         <v>10348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5643</v>
+        <v>5067</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18464</v>
+        <v>17507</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05091996319894416</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02776548403329938</v>
+        <v>0.02493267515676476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09085606445519506</v>
+        <v>0.08614443894226952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2576,19 +2576,19 @@
         <v>4254</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8219</v>
+        <v>7897</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01879036277441153</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008864501896720852</v>
+        <v>0.008860679198796777</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03630348510278548</v>
+        <v>0.03488396168064009</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -2597,19 +2597,19 @@
         <v>14602</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8879</v>
+        <v>9364</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23363</v>
+        <v>23792</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03398893646110077</v>
+        <v>0.03398893646110075</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02066727532982527</v>
+        <v>0.02179720837054628</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05438028968578527</v>
+        <v>0.05538047504979869</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>121663</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>109878</v>
+        <v>110235</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134208</v>
+        <v>134137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5986568263160992</v>
+        <v>0.5986568263160993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5406687548377734</v>
+        <v>0.542428089833095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.660389905751854</v>
+        <v>0.6600403193533401</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>364</v>
@@ -2647,19 +2647,19 @@
         <v>167313</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>157485</v>
+        <v>155997</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176689</v>
+        <v>175939</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7390423433496673</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6956294020325577</v>
+        <v>0.6890552774487098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7804558612831519</v>
+        <v>0.7771411195402259</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -2668,19 +2668,19 @@
         <v>288976</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>270517</v>
+        <v>272247</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>305281</v>
+        <v>303603</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6726344329808385</v>
+        <v>0.6726344329808384</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6296691268805987</v>
+        <v>0.6336965745058076</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7105864622583528</v>
+        <v>0.7066817934855956</v>
       </c>
     </row>
     <row r="32">
@@ -2697,19 +2697,19 @@
         <v>67119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55230</v>
+        <v>55232</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78768</v>
+        <v>78653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3302686587199933</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2717683045459209</v>
+        <v>0.2717747973966853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3875881361784672</v>
+        <v>0.3870205907442665</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>113</v>
@@ -2718,19 +2718,19 @@
         <v>52190</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42991</v>
+        <v>43811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>61738</v>
+        <v>62691</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2305309019334253</v>
+        <v>0.2305309019334254</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1898967703200271</v>
+        <v>0.1935201375367132</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2727025111643426</v>
+        <v>0.2769138021598722</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>200</v>
@@ -2739,19 +2739,19 @@
         <v>119310</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104042</v>
+        <v>104976</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>135943</v>
+        <v>135255</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2777108116066342</v>
+        <v>0.2777108116066341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2421740847635542</v>
+        <v>0.2443475702746459</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.316427812707552</v>
+        <v>0.3148257614499206</v>
       </c>
     </row>
     <row r="33">
@@ -2843,19 +2843,19 @@
         <v>3952</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1482</v>
+        <v>852</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10741</v>
+        <v>10236</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01460030094787808</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005474028505381185</v>
+        <v>0.00314605548306895</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03967783303696409</v>
+        <v>0.03781161047655753</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3427</v>
+        <v>3407</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002331043486039717</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01306505057721983</v>
+        <v>0.01298797524753969</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2885,19 +2885,19 @@
         <v>4564</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10429</v>
+        <v>10547</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008562390728233994</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003072451768371615</v>
+        <v>0.003045966293319654</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01956601763224664</v>
+        <v>0.01978799351166197</v>
       </c>
     </row>
     <row r="35">
@@ -2914,19 +2914,19 @@
         <v>4791</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1632</v>
+        <v>2244</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9704</v>
+        <v>10437</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01769651480306035</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006028054404020284</v>
+        <v>0.008291214183203487</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03584581349478531</v>
+        <v>0.03855510934556446</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2935,19 +2935,19 @@
         <v>2264</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7108</v>
+        <v>7959</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.008630677101230695</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001395244799765394</v>
+        <v>0.001845554128887984</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02709743540345985</v>
+        <v>0.03034376159871459</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -2956,19 +2956,19 @@
         <v>7054</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3251</v>
+        <v>3053</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13848</v>
+        <v>13511</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0132350619172791</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00609903641414161</v>
+        <v>0.005728721026614844</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02598159435871744</v>
+        <v>0.02534813769014982</v>
       </c>
     </row>
     <row r="36">
@@ -2985,19 +2985,19 @@
         <v>15367</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8778</v>
+        <v>8742</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23610</v>
+        <v>23474</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.05676799234205439</v>
+        <v>0.05676799234205438</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03242631282639435</v>
+        <v>0.03229288882097799</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08721740892481711</v>
+        <v>0.08671508028159974</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>24</v>
@@ -3006,19 +3006,19 @@
         <v>13318</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8498</v>
+        <v>8538</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19872</v>
+        <v>19834</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05077225252448572</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03239686369576164</v>
+        <v>0.03255089648223231</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07575897712190387</v>
+        <v>0.0756127945419299</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>42</v>
@@ -3027,19 +3027,19 @@
         <v>28685</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20848</v>
+        <v>20636</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39236</v>
+        <v>38956</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.05381738682811642</v>
+        <v>0.0538173868281164</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03911390429807919</v>
+        <v>0.03871639641666648</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07361187123452896</v>
+        <v>0.07308615227117758</v>
       </c>
     </row>
     <row r="37">
@@ -3056,19 +3056,19 @@
         <v>52654</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>40789</v>
+        <v>41320</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66093</v>
+        <v>65453</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1945052130107096</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1506775751953019</v>
+        <v>0.1526365927894755</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2441482989635011</v>
+        <v>0.2417870021421273</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -3077,19 +3077,19 @@
         <v>32125</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>23049</v>
+        <v>24369</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42061</v>
+        <v>41865</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1224710979450139</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08787154772993196</v>
+        <v>0.09290221723500997</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1603512190915803</v>
+        <v>0.1596064285207514</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -3098,19 +3098,19 @@
         <v>84779</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>70095</v>
+        <v>70110</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>100042</v>
+        <v>102080</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1590560001409836</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1315081517684907</v>
+        <v>0.1315358179031041</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1876914665829746</v>
+        <v>0.1915160911820056</v>
       </c>
     </row>
     <row r="38">
@@ -3127,19 +3127,19 @@
         <v>193943</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>179193</v>
+        <v>180460</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>206761</v>
+        <v>206669</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7164299788962976</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6619433275873946</v>
+        <v>0.6666259758864729</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7637808583577156</v>
+        <v>0.7634421719706376</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>380</v>
@@ -3148,19 +3148,19 @@
         <v>213986</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>202549</v>
+        <v>203344</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>224360</v>
+        <v>223114</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.81579492894323</v>
+        <v>0.8157949289432299</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7721922854834411</v>
+        <v>0.7752235094910881</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8553445053483886</v>
+        <v>0.8505942210975731</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>662</v>
@@ -3169,19 +3169,19 @@
         <v>407929</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>389197</v>
+        <v>388767</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>424641</v>
+        <v>425837</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7653291603853868</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7301863542368483</v>
+        <v>0.7293781564993355</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7966835974506894</v>
+        <v>0.7989265864172017</v>
       </c>
     </row>
     <row r="39">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9112</v>
+        <v>8722</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00359777422933339</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01283909965497987</v>
+        <v>0.01228958781386355</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3294,19 +3294,19 @@
         <v>7234</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2839</v>
+        <v>2788</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15984</v>
+        <v>16785</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.009460332370241017</v>
+        <v>0.009460332370241015</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003713065511300018</v>
+        <v>0.003646681596827503</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02090456117381235</v>
+        <v>0.02195182343023474</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3315,19 +3315,19 @@
         <v>9787</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3819</v>
+        <v>4403</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18781</v>
+        <v>20409</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006638264580349182</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002590017448663635</v>
+        <v>0.002986418025442736</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01273862233330256</v>
+        <v>0.01384282232758258</v>
       </c>
     </row>
     <row r="41">
@@ -3344,19 +3344,19 @@
         <v>8682</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3390</v>
+        <v>3363</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17600</v>
+        <v>18144</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01223414099448422</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004776818936536438</v>
+        <v>0.004738942203835104</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02479986653184946</v>
+        <v>0.02556618962652845</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>8</v>
@@ -3365,19 +3365,19 @@
         <v>5815</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2803</v>
+        <v>2782</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11048</v>
+        <v>11685</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007605462546340517</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003665957327058267</v>
+        <v>0.003638539521901518</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01444904582079124</v>
+        <v>0.015282702397445</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -3386,19 +3386,19 @@
         <v>14498</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8261</v>
+        <v>8228</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24649</v>
+        <v>24260</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009833575947404473</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005603386372173449</v>
+        <v>0.005580796162735531</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0167188599991482</v>
+        <v>0.01645537196599816</v>
       </c>
     </row>
     <row r="42">
@@ -3415,19 +3415,19 @@
         <v>54271</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>38537</v>
+        <v>39770</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>71791</v>
+        <v>72637</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.07647039715468745</v>
+        <v>0.07647039715468744</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05430112658554381</v>
+        <v>0.05603828691148773</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1011579350777906</v>
+        <v>0.1023502297767806</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>60</v>
@@ -3436,19 +3436,19 @@
         <v>55198</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42439</v>
+        <v>40937</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>71808</v>
+        <v>70105</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.0721894068705988</v>
+        <v>0.07218940687059877</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05550259549958189</v>
+        <v>0.05353950143346234</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09391331070604136</v>
+        <v>0.09168518710146423</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>102</v>
@@ -3457,19 +3457,19 @@
         <v>109468</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>91377</v>
+        <v>89600</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>137665</v>
+        <v>134475</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07425015313514605</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06197934704956316</v>
+        <v>0.06077373890659629</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0933752777096538</v>
+        <v>0.09121160697999683</v>
       </c>
     </row>
     <row r="43">
@@ -3486,19 +3486,19 @@
         <v>187742</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>161645</v>
+        <v>162388</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>213558</v>
+        <v>216055</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2645400754726279</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2277679044093371</v>
+        <v>0.2288148439845523</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3009166046068058</v>
+        <v>0.304433785082929</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>223</v>
@@ -3507,19 +3507,19 @@
         <v>174689</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>153312</v>
+        <v>152715</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>197877</v>
+        <v>195291</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2284645662570124</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2005064139490756</v>
+        <v>0.1997263789893622</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2587907475107484</v>
+        <v>0.2554080229787847</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>383</v>
@@ -3528,19 +3528,19 @@
         <v>362432</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>328657</v>
+        <v>327260</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>399231</v>
+        <v>395723</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2458302844493735</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2229213735625005</v>
+        <v>0.2219740075121418</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2707903423465763</v>
+        <v>0.2684114295120049</v>
       </c>
     </row>
     <row r="44">
@@ -3557,19 +3557,19 @@
         <v>456444</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>427140</v>
+        <v>424730</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>484818</v>
+        <v>483907</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.643157612148867</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6018656313111164</v>
+        <v>0.598470185575659</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6831373058036893</v>
+        <v>0.6818542397208452</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>653</v>
@@ -3578,19 +3578,19 @@
         <v>521686</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>495078</v>
+        <v>500019</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>544381</v>
+        <v>546938</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6822802319558073</v>
+        <v>0.6822802319558072</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6474804627364844</v>
+        <v>0.653942082339243</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7119609076512744</v>
+        <v>0.7153045415378592</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1032</v>
@@ -3599,19 +3599,19 @@
         <v>978132</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>938211</v>
+        <v>934733</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1015288</v>
+        <v>1014745</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6634477218877268</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6363701931620671</v>
+        <v>0.6340113334580382</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6886500027031932</v>
+        <v>0.6882820259023635</v>
       </c>
     </row>
     <row r="45">
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3484</v>
+        <v>3493</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.0008282778170856463</v>
+        <v>0.0008282778170856464</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004194541776306933</v>
+        <v>0.004204841162431503</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3919</v>
+        <v>3445</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.0004228717289451923</v>
+        <v>0.0004228717289451924</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002408725003801395</v>
+        <v>0.002117572953511098</v>
       </c>
     </row>
     <row r="47">
@@ -3766,19 +3766,19 @@
         <v>12271</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6649</v>
+        <v>6816</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>21213</v>
+        <v>20475</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01540999414371586</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00834957933051832</v>
+        <v>0.008559883495340174</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02663922812269382</v>
+        <v>0.02571203441777857</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3787,19 +3787,19 @@
         <v>4278</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9365</v>
+        <v>9135</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.005149837221027201</v>
+        <v>0.005149837221027202</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001913471584994838</v>
+        <v>0.001904945746426897</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01127524639773447</v>
+        <v>0.01099809920179615</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>18</v>
@@ -3808,19 +3808,19 @@
         <v>16549</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10122</v>
+        <v>9621</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>26927</v>
+        <v>25426</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01017173928810176</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006221912106087222</v>
+        <v>0.005913903812494595</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01655100823854253</v>
+        <v>0.01562856228170576</v>
       </c>
     </row>
     <row r="48">
@@ -3837,19 +3837,19 @@
         <v>50328</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>36110</v>
+        <v>36973</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>65780</v>
+        <v>66291</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.06320227375387376</v>
+        <v>0.06320227375387374</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04534658781096595</v>
+        <v>0.0464312053292573</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.08260643519458954</v>
+        <v>0.0832488223442245</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>44</v>
@@ -3858,19 +3858,19 @@
         <v>34443</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>24554</v>
+        <v>25866</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>46459</v>
+        <v>46435</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04146756123515175</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0295619370251827</v>
+        <v>0.0311412419897106</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05593409185367463</v>
+        <v>0.05590451285272482</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>91</v>
@@ -3879,19 +3879,19 @@
         <v>84771</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>68050</v>
+        <v>68174</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>106400</v>
+        <v>104961</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05210576087941593</v>
+        <v>0.05210576087941594</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04182785372993664</v>
+        <v>0.04190424808058867</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06540027356312794</v>
+        <v>0.06451548971202835</v>
       </c>
     </row>
     <row r="49">
@@ -3908,19 +3908,19 @@
         <v>231545</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>205965</v>
+        <v>206182</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>262623</v>
+        <v>260289</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2907746193832755</v>
+        <v>0.2907746193832754</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2586521001476974</v>
+        <v>0.2589234364129023</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3298031925155783</v>
+        <v>0.326871695381835</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>247</v>
@@ -3929,19 +3929,19 @@
         <v>194281</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>173702</v>
+        <v>170298</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>218528</v>
+        <v>215409</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2339022664351715</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2091263362651392</v>
+        <v>0.2050276666937626</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2630940939164024</v>
+        <v>0.2593386818991201</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>456</v>
@@ -3950,19 +3950,19 @@
         <v>425826</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>392595</v>
+        <v>387909</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>462401</v>
+        <v>460866</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2617388179598273</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.241312938876849</v>
+        <v>0.2384331271008569</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2842201792087036</v>
+        <v>0.2832765303810735</v>
       </c>
     </row>
     <row r="50">
@@ -3979,19 +3979,19 @@
         <v>502159</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>472696</v>
+        <v>471398</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>531013</v>
+        <v>531292</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.6306131127191349</v>
+        <v>0.630613112719135</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5936129560021121</v>
+        <v>0.5919834744105741</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6668484280965302</v>
+        <v>0.6671984961820632</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>763</v>
@@ -4000,19 +4000,19 @@
         <v>596919</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>572476</v>
+        <v>575599</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>620312</v>
+        <v>621202</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7186520572915639</v>
+        <v>0.7186520572915641</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6892246158620192</v>
+        <v>0.6929837443996145</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7468164817940978</v>
+        <v>0.7478868111547025</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1256</v>
@@ -4021,19 +4021,19 @@
         <v>1099077</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1060619</v>
+        <v>1062123</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1134021</v>
+        <v>1139161</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.6755608101437098</v>
+        <v>0.6755608101437099</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6519219005864487</v>
+        <v>0.6528462027284999</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6970391294566881</v>
+        <v>0.7001990258508022</v>
       </c>
     </row>
     <row r="51">
@@ -4125,19 +4125,19 @@
         <v>9781</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4467</v>
+        <v>4563</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>18315</v>
+        <v>18180</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.002796425818306297</v>
+        <v>0.002796425818306296</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0012771118814964</v>
+        <v>0.001304672460616414</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.005236397345309972</v>
+        <v>0.005197970852162368</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>14</v>
@@ -4146,19 +4146,19 @@
         <v>12015</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>6284</v>
+        <v>6660</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>21274</v>
+        <v>22247</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.003236149254795174</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.001692424432490802</v>
+        <v>0.001793644640580714</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.005729802776298577</v>
+        <v>0.005991953921830401</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>23</v>
@@ -4167,19 +4167,19 @@
         <v>21796</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>14228</v>
+        <v>13408</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>35416</v>
+        <v>34165</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.003022851372539573</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.001973283222637381</v>
+        <v>0.001859459340715899</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.004911795934760416</v>
+        <v>0.004738306754047687</v>
       </c>
     </row>
     <row r="53">
@@ -4196,19 +4196,19 @@
         <v>38805</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>28341</v>
+        <v>28742</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>52698</v>
+        <v>54719</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01109489610331873</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.008103112427918153</v>
+        <v>0.008217649163057911</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01506695123150489</v>
+        <v>0.01564485393150339</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>33</v>
@@ -4217,19 +4217,19 @@
         <v>22776</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>15216</v>
+        <v>16308</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>32608</v>
+        <v>33587</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.00613447104316478</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.004098167884489596</v>
+        <v>0.004392209242766947</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.008782463957054867</v>
+        <v>0.009046009475248347</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>73</v>
@@ -4238,19 +4238,19 @@
         <v>61582</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>48591</v>
+        <v>48576</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>77888</v>
+        <v>81009</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.008540638357936078</v>
+        <v>0.008540638357936082</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006739000220794249</v>
+        <v>0.006736882262105875</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01080203428236546</v>
+        <v>0.01123497658083996</v>
       </c>
     </row>
     <row r="54">
@@ -4267,19 +4267,19 @@
         <v>201650</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>173545</v>
+        <v>171895</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>234808</v>
+        <v>235692</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.05765381727292413</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.04961825634868368</v>
+        <v>0.04914656960712707</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.0671341210535113</v>
+        <v>0.06738678043006616</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>203</v>
@@ -4288,19 +4288,19 @@
         <v>152814</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>132092</v>
+        <v>131341</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>177733</v>
+        <v>181371</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.04115810866377771</v>
+        <v>0.04115810866377772</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.03557678581837975</v>
+        <v>0.03537469072184537</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.04786956667918318</v>
+        <v>0.04884937393968353</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>378</v>
@@ -4309,19 +4309,19 @@
         <v>354464</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>319522</v>
+        <v>318066</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>397752</v>
+        <v>398016</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.04915972836531348</v>
+        <v>0.04915972836531349</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.04431367328461238</v>
+        <v>0.04411175157125071</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.0551632683041173</v>
+        <v>0.05519981261963439</v>
       </c>
     </row>
     <row r="55">
@@ -4338,19 +4338,19 @@
         <v>814931</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>761834</v>
+        <v>762484</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>870966</v>
+        <v>866483</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.2329975100795434</v>
+        <v>0.2329975100795433</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2178166715233937</v>
+        <v>0.2180025467419371</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2490185620604919</v>
+        <v>0.2477369000294694</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1163</v>
@@ -4359,19 +4359,19 @@
         <v>766911</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>724804</v>
+        <v>725107</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>813420</v>
+        <v>816009</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2065555132947037</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1952145383198225</v>
+        <v>0.1952962000423661</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2190820848110984</v>
+        <v>0.2197791882316867</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1933</v>
@@ -4380,19 +4380,19 @@
         <v>1581842</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1510234</v>
+        <v>1511330</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1649005</v>
+        <v>1654650</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.219381806934748</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2094507602774608</v>
+        <v>0.2096027474827305</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2286964582137976</v>
+        <v>0.2294794182366638</v>
       </c>
     </row>
     <row r="56">
@@ -4409,19 +4409,19 @@
         <v>2432427</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2366265</v>
+        <v>2374657</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2491225</v>
+        <v>2491272</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.6954573507259075</v>
+        <v>0.6954573507259074</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6765406970595357</v>
+        <v>0.678940121546344</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7122682287140388</v>
+        <v>0.7122816895449512</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>3916</v>
@@ -4430,19 +4430,19 @@
         <v>2758340</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2709386</v>
+        <v>2706230</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2804547</v>
+        <v>2804747</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.7429157577435586</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.7297307498135577</v>
+        <v>0.7288806616701182</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.7553609437811235</v>
+        <v>0.7554148476196643</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>6272</v>
@@ -4451,19 +4451,19 @@
         <v>5190767</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5119293</v>
+        <v>5117818</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5266407</v>
+        <v>5273851</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.7198949749694626</v>
+        <v>0.7198949749694629</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7099824179624972</v>
+        <v>0.7097777905767035</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7303852735735995</v>
+        <v>0.731417680049927</v>
       </c>
     </row>
     <row r="57">
